--- a/medicine/Sexualité et sexologie/Sex_Tape_(film)/Sex_Tape_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Sex_Tape_(film)/Sex_Tape_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sex Tape ou Film osé au Québec est une comédie américaine réalisée par Jake Kasdan, sortie en 2014.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jay et Annie s’aiment, mais dix ans de mariage et deux enfants ont un peu érodé leur passion.
 Pour raviver la flamme, ils décident de filmer leurs ébats lors d’une séance épique. L’idée semble plutôt bonne… jusqu'à ce qu’ils s’aperçoivent que leur vidéo a été envoyée par erreur à tout leur entourage familial et professionnel.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre français et original : Sex Tape
 Titre québécois : Film osé
@@ -576,7 +592,7 @@
  États-Unis et  Canada : 18 juillet 2014
  Espagne : 25 juillet 2014
  France et  Allemagne : 10 septembre 2014
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.[1]
+ Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 </t>
         </is>
       </c>
@@ -605,9 +621,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Légende : VF = Version Française[2],[3] et VQ = Version Québécoise[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Légende : VF = Version Française, et VQ = Version Québécoise
 Cameron Diaz (VF : Barbara Tissier ; VQ : Camille Cyr-Desmarais) : Annie
 Giselle Eisenberg : Nell fille d'Annie
 Jason Segel (VF : Jérôme Rebbot ; VQ : Patrice Dubois) : Jay
@@ -649,9 +667,11 @@
           <t>Lieux de tournage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage commence le 12 septembre 2013 à Newton au Massachusetts[5] et à Los Angeles en Californie[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage commence le 12 septembre 2013 à Newton au Massachusetts et à Los Angeles en Californie.
 </t>
         </is>
       </c>
@@ -680,9 +700,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa sortie en salles, Sex Tape rencontre de nombreux commentaires défavorables des critiques professionnels, obtenant 19 % d'avis positifs sur le site Rotten Tomatoes, pour 106 commentaires et une moyenne de 4⁄10[7] et un score de 36⁄100 sur le site Metacritic[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa sortie en salles, Sex Tape rencontre de nombreux commentaires défavorables des critiques professionnels, obtenant 19 % d'avis positifs sur le site Rotten Tomatoes, pour 106 commentaires et une moyenne de 4⁄10 et un score de 36⁄100 sur le site Metacritic.
 </t>
         </is>
       </c>
@@ -712,6 +734,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
